--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="H2">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="I2">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="J2">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>0.352188004608</v>
+        <v>0.002519701184</v>
       </c>
       <c r="R2">
-        <v>3.169692041472</v>
+        <v>0.022677310656</v>
       </c>
       <c r="S2">
-        <v>0.002588121765922808</v>
+        <v>2.158263474194613E-05</v>
       </c>
       <c r="T2">
-        <v>0.002588121765922808</v>
+        <v>2.158263474194613E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="H3">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="I3">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="J3">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>0.3538379265617778</v>
+        <v>0.2054031146346667</v>
       </c>
       <c r="R3">
-        <v>3.184541339056</v>
+        <v>1.848628031712</v>
       </c>
       <c r="S3">
-        <v>0.002600246536967748</v>
+        <v>0.001759391322339475</v>
       </c>
       <c r="T3">
-        <v>0.002600246536967748</v>
+        <v>0.001759391322339475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="H4">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="I4">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="J4">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>0.01699122001377778</v>
+        <v>0.015802126648</v>
       </c>
       <c r="R4">
-        <v>0.152920980124</v>
+        <v>0.142219139832</v>
       </c>
       <c r="S4">
-        <v>0.0001248632712411313</v>
+        <v>0.0001353539577452361</v>
       </c>
       <c r="T4">
-        <v>0.0001248632712411313</v>
+        <v>0.0001353539577452362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>13.206284</v>
       </c>
       <c r="I5">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="J5">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>39.487000460544</v>
+        <v>0.4866603695893333</v>
       </c>
       <c r="R5">
-        <v>355.383004144896</v>
+        <v>4.379943326304</v>
       </c>
       <c r="S5">
-        <v>0.2901778709831064</v>
+        <v>0.004168515325120032</v>
       </c>
       <c r="T5">
-        <v>0.2901778709831063</v>
+        <v>0.004168515325120032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>13.206284</v>
       </c>
       <c r="I6">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="J6">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
         <v>39.67198821735644</v>
@@ -818,10 +818,10 @@
         <v>357.047893956208</v>
       </c>
       <c r="S6">
-        <v>0.2915372893436732</v>
+        <v>0.339812528810557</v>
       </c>
       <c r="T6">
-        <v>0.2915372893436732</v>
+        <v>0.3398125288105571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>13.206284</v>
       </c>
       <c r="I7">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="J7">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>1.905040216392444</v>
+        <v>3.052055872198666</v>
       </c>
       <c r="R7">
-        <v>17.145361947532</v>
+        <v>27.468502849788</v>
       </c>
       <c r="S7">
-        <v>0.01399955701072616</v>
+        <v>0.02614254718772066</v>
       </c>
       <c r="T7">
-        <v>0.01399955701072615</v>
+        <v>0.02614254718772067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="H8">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="I8">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="J8">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>26.445896175744</v>
+        <v>0.8256790222373334</v>
       </c>
       <c r="R8">
-        <v>238.013065581696</v>
+        <v>7.431111200136001</v>
       </c>
       <c r="S8">
-        <v>0.1943427902604468</v>
+        <v>0.007072397657386495</v>
       </c>
       <c r="T8">
-        <v>0.1943427902604468</v>
+        <v>0.007072397657386496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="H9">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="I9">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="J9">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>26.56978927862311</v>
+        <v>67.30839511168578</v>
       </c>
       <c r="R9">
-        <v>239.128103507608</v>
+        <v>605.775556005172</v>
       </c>
       <c r="S9">
-        <v>0.195253242723375</v>
+        <v>0.5765336445395369</v>
       </c>
       <c r="T9">
-        <v>0.195253242723375</v>
+        <v>0.5765336445395369</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="H10">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="I10">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="J10">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>1.275875482709111</v>
+        <v>5.178187224279666</v>
       </c>
       <c r="R10">
-        <v>11.482879344382</v>
+        <v>46.603685018517</v>
       </c>
       <c r="S10">
-        <v>0.009376018104540839</v>
+        <v>0.04435403856485226</v>
       </c>
       <c r="T10">
-        <v>0.009376018104540838</v>
+        <v>0.04435403856485227</v>
       </c>
     </row>
   </sheetData>
